--- a/jpcore-r4b/develop/StructureDefinition-jp-encounter.xlsx
+++ b/jpcore-r4b/develop/StructureDefinition-jp-encounter.xlsx
@@ -648,7 +648,7 @@
   </si>
   <si>
     <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4B/datatypes.html#Duration).
 これは期間ではない-これは時間の尺度（別のタイプ）であり、時間の固定値で発生する期間である。 期間は時間の範囲を指定する。 使用状況は、範囲全体が適用されるか（たとえば、「患者はこの時間範囲で入院していた」）、または範囲から1つの値が適用されるか（たとえば、「これら2回の間に患者に与える」）を指定する。 期間が必要な場合は、タイプをInterval | Durationとして指定する。</t>
   </si>
   <si>
@@ -1552,9 +1552,9 @@
   </si>
   <si>
     <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4B/datatypes.html#Duration).
 期間は時間の範囲を指定する。 使用のコンテキストは、範囲全体が適用されるかどうかを指定する (例: "患者はこの時間範囲の病院の入院患者でした" )。または、範囲から1つの値が適用される（例：「この2回の間に患者に与える」）。
-期間は、期間(経過時間の尺度)には使用されない。Duration](http://hl7.org/fhir/R4/datatypes.html#Duration)を参照のこと。</t>
+期間は、期間(経過時間の尺度)には使用されない。Duration](http://hl7.org/fhir/R4B/datatypes.html#Duration)を参照のこと。</t>
   </si>
   <si>
     <t>Encounter.serviceProvider</t>
